--- a/data/teacher/Hugo Souza.xlsx
+++ b/data/teacher/Hugo Souza.xlsx
@@ -537,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-Motores CA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -601,12 +601,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-Motores CA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MEC-3B-Motores CA</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -633,12 +633,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>MCT-3B-Motores CA</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>MEC-3B-Motores CA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">

--- a/data/teacher/Hugo Souza.xlsx
+++ b/data/teacher/Hugo Souza.xlsx
@@ -537,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MEC-3B-Motores CA</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -606,7 +606,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MCT-3B-Motores CA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -633,12 +633,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-Motores CA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MCT-3B-Motores CA</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">

--- a/data/teacher/Hugo Souza.xlsx
+++ b/data/teacher/Hugo Souza.xlsx
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-Motores CA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-Motores CA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MEC-3B-Motores CA</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MEC-3B-Motores CA</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">

--- a/data/teacher/Hugo Souza.xlsx
+++ b/data/teacher/Hugo Souza.xlsx
@@ -505,12 +505,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MEC-3B-Motores CA</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MCT-3B-Motores CA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -601,12 +601,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-Motores CA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MCT-3B-Motores CA</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">

--- a/data/teacher/Hugo Souza.xlsx
+++ b/data/teacher/Hugo Souza.xlsx
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MCT-3B-Motores CA</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MEC-3B-Motores CA</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -633,12 +633,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-Motores CA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MCT-3B-Motores CA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">

--- a/data/teacher/Hugo Souza.xlsx
+++ b/data/teacher/Hugo Souza.xlsx
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MEC-3B-Motores CA</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -537,12 +537,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MEC-3B-Motores CA</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MCT-3B-Motores CA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-Motores CA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -633,12 +633,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-Motores CA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MCT-3B-Motores CA</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">

--- a/data/teacher/Hugo Souza.xlsx
+++ b/data/teacher/Hugo Souza.xlsx
@@ -542,7 +542,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MCT-3B-Motores CA</t>
+          <t>MCT-3B-MotoresCA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MEC-3B-Motores CA</t>
+          <t>MEC-3B-MotoresCA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MEC-3B-Motores CA</t>
+          <t>MEC-3B-MotoresCA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">

--- a/data/teacher/Hugo Souza.xlsx
+++ b/data/teacher/Hugo Souza.xlsx
@@ -537,12 +537,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-Motores CA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MCT-3B-MotoresCA</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MEC-3B-MotoresCA</t>
+          <t>MEC-3B-Motores CA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -633,12 +633,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MEC-3B-MotoresCA</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MCT-3B-Motores CA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
